--- a/data/tudengite-arv.xlsx
+++ b/data/tudengite-arv.xlsx
@@ -1,66 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E7470\OneDrive\Questro Analytics\Jobs\KANTAR Emor\R koolitus\Teemad\R Koolituse failid\Andmestikud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaur_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_A28D0D18435A75B4AA140D07400BC443B1D68A05" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{32776872-E58D-4C29-B782-5CAD2806C377}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C625355-3CBD-4FB0-87B1-AA366BC168CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statsionaar" sheetId="2" r:id="rId1"/>
     <sheet name="avatud ylikool" sheetId="3" r:id="rId2"/>
-    <sheet name="tabel" sheetId="4" r:id="rId3"/>
-    <sheet name="kokku" sheetId="6" r:id="rId4"/>
+    <sheet name="kokku" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>aasta</t>
   </si>
   <si>
     <t>tudengeid</t>
   </si>
-  <si>
-    <t>Tabel 1. Üliõpilaste arv kõigis õppeastmetes õppevormi lõikes aastatel 2005-2015</t>
-  </si>
-  <si>
-    <t>vorm</t>
-  </si>
-  <si>
-    <t>stats</t>
-  </si>
-  <si>
-    <t>avatud</t>
-  </si>
-  <si>
-    <t>tudengeid aastas</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,17 +68,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -120,7 +91,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office'i kujundus">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -661,317 +632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2005</v>
-      </c>
-      <c r="C4">
-        <v>12881</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2006</v>
-      </c>
-      <c r="C5">
-        <v>12323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2007</v>
-      </c>
-      <c r="C6">
-        <v>11868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2008</v>
-      </c>
-      <c r="C7">
-        <v>11865</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2009</v>
-      </c>
-      <c r="C8">
-        <v>12393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2010</v>
-      </c>
-      <c r="C9">
-        <v>12979</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>12941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>2012</v>
-      </c>
-      <c r="C11">
-        <v>12572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>2013</v>
-      </c>
-      <c r="C12">
-        <v>11990</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>2014</v>
-      </c>
-      <c r="C13">
-        <v>11088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>2015</v>
-      </c>
-      <c r="C14">
-        <v>10678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2005</v>
-      </c>
-      <c r="C16">
-        <v>5386</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>2006</v>
-      </c>
-      <c r="C17">
-        <v>5421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2007</v>
-      </c>
-      <c r="C18">
-        <v>5124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>2008</v>
-      </c>
-      <c r="C19">
-        <v>5079</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2009</v>
-      </c>
-      <c r="C20">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21">
-        <v>2010</v>
-      </c>
-      <c r="C21">
-        <v>5157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>2011</v>
-      </c>
-      <c r="C22">
-        <v>5106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>2012</v>
-      </c>
-      <c r="C23">
-        <v>4798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>2013</v>
-      </c>
-      <c r="C24">
-        <v>4035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>2014</v>
-      </c>
-      <c r="C25">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>2015</v>
-      </c>
-      <c r="C26">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>2016</v>
-      </c>
-      <c r="C27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,6 +729,38 @@
         <v>13719</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>12896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14">
+        <v>13169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15">
+        <v>13395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tudengite-arv.xlsx
+++ b/data/tudengite-arv.xlsx
@@ -1,40 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaur_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\pohl.ut.ee\annes\GitHub\2020\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C625355-3CBD-4FB0-87B1-AA366BC168CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="statsionaar" sheetId="2" r:id="rId1"/>
     <sheet name="avatud ylikool" sheetId="3" r:id="rId2"/>
     <sheet name="kokku" sheetId="6" r:id="rId3"/>
+    <sheet name="tabel" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>aasta</t>
   </si>
   <si>
     <t>tudengeid</t>
   </si>
+  <si>
+    <t>Tabel 1. Üliõpilaste arv kõigis õppeastmetes õppevormi lõikes aastatel 2005-2015</t>
+  </si>
+  <si>
+    <t>vorm</t>
+  </si>
+  <si>
+    <t>tudengeid aastas</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>avatud</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +62,15 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,12 +94,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,7 +119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office'i kujundus">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,23 +194,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -218,23 +229,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,10 +404,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -521,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,10 +626,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -764,4 +758,310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2005</v>
+      </c>
+      <c r="C4">
+        <v>12881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2006</v>
+      </c>
+      <c r="C5">
+        <v>12323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2007</v>
+      </c>
+      <c r="C6">
+        <v>11868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2008</v>
+      </c>
+      <c r="C7">
+        <v>11865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8">
+        <v>12393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2010</v>
+      </c>
+      <c r="C9">
+        <v>12979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>12941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2012</v>
+      </c>
+      <c r="C11">
+        <v>12572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2013</v>
+      </c>
+      <c r="C12">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2014</v>
+      </c>
+      <c r="C13">
+        <v>11088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14">
+        <v>10678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2005</v>
+      </c>
+      <c r="C16">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2006</v>
+      </c>
+      <c r="C17">
+        <v>5421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2007</v>
+      </c>
+      <c r="C18">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2008</v>
+      </c>
+      <c r="C19">
+        <v>5079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2009</v>
+      </c>
+      <c r="C20">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2010</v>
+      </c>
+      <c r="C21">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2014</v>
+      </c>
+      <c r="C25">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>